--- a/public/meisai.xlsx
+++ b/public/meisai.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daichi/Documents/ROLEE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0966fe8ef982a7b9/ドキュメント/学校資料/共同学習/資料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E17BCD3-B865-6441-BAC8-8AA214B3F675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{1E17BCD3-B865-6441-BAC8-8AA214B3F675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA54461-24CD-41A5-8F3F-FD45B4312753}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{26B135E9-7569-1E47-A1FC-9BF8B28DC742}"/>
+    <workbookView xWindow="35205" yWindow="2175" windowWidth="17280" windowHeight="8880" xr2:uid="{26B135E9-7569-1E47-A1FC-9BF8B28DC742}"/>
   </bookViews>
   <sheets>
     <sheet name="開発費" sheetId="1" r:id="rId1"/>
     <sheet name="運用費" sheetId="2" r:id="rId2"/>
-    <sheet name="削減案" sheetId="3" r:id="rId3"/>
+    <sheet name="削減案" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>ドメイン代</t>
     <rPh sb="4" eb="5">
@@ -47,43 +47,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ご請求日</t>
-  </si>
-  <si>
-    <t>ご請求日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ご請求額</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サーバー代</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ドメイン代</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドメイン代合計</t>
-    <rPh sb="5" eb="7">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドメイン代合計金額</t>
-    <rPh sb="5" eb="9">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバー代合計金額</t>
-    <rPh sb="5" eb="9">
-      <t>ゴウケイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -101,50 +69,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>報酬</t>
+    <t>（予想）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求額</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
     <rPh sb="0" eb="2">
-      <t>ホウシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Back4App</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MVPプラン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pay as you goプラン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Anuity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Monthly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Capable Requst Quantity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>500k Requests</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5M Requests</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバーサービス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（予想）</t>
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンドをすべてNext.jsに移行することによって、サーバー費用が0または大幅に削減される可能性がある。</t>
+    <rPh sb="18" eb="20">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>オオハバ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス数が無料枠を超えるなら月3000円</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ムリョウワク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>エン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -152,12 +138,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="185" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="186" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,13 +202,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -241,6 +229,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,32 +554,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1509158C-A0C2-544B-A726-CF7C5CD1C451}">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="165" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B4" s="1">
         <v>45536</v>
       </c>
@@ -595,7 +587,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B5" s="1">
         <v>45505</v>
       </c>
@@ -603,7 +595,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B6" s="1">
         <v>45474</v>
       </c>
@@ -611,7 +603,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B7" s="1">
         <v>45444</v>
       </c>
@@ -619,29 +611,29 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C4:C7)</f>
         <v>6292</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B12" s="1">
         <v>45536</v>
       </c>
@@ -649,7 +641,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B13" s="1">
         <v>45505</v>
       </c>
@@ -657,7 +649,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B14" s="1">
         <v>45474</v>
       </c>
@@ -665,7 +657,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B15" s="1">
         <v>45444</v>
       </c>
@@ -673,8 +665,8 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2">
@@ -682,19 +674,16 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="5:6">
-      <c r="E18" t="s">
-        <v>10</v>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.5">
+      <c r="E18" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="F18" s="2">
         <f>C8+C16</f>
         <v>23292</v>
       </c>
     </row>
-    <row r="19" spans="5:6">
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.5">
       <c r="F19" s="2"/>
     </row>
   </sheetData>
@@ -707,31 +696,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD273685-B73F-C640-A049-C3F234B02CBB}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="174" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B3" s="1">
         <v>45566</v>
       </c>
@@ -739,7 +728,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B4" s="1">
         <v>45597</v>
       </c>
@@ -747,7 +736,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B5" s="1">
         <v>45627</v>
       </c>
@@ -755,7 +744,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B6" s="1">
         <v>45658</v>
       </c>
@@ -763,7 +752,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B7" s="1">
         <v>45689</v>
       </c>
@@ -771,7 +760,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B8" s="1">
         <v>45717</v>
       </c>
@@ -779,29 +768,29 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="B9" t="s">
-        <v>6</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B9" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C3:C8)</f>
         <v>9438</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B13" s="1">
         <v>45566</v>
       </c>
@@ -809,7 +798,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B14" s="1">
         <v>45597</v>
       </c>
@@ -817,7 +806,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B15" s="1">
         <v>45627</v>
       </c>
@@ -825,55 +814,55 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B16" s="1">
         <v>45658</v>
       </c>
       <c r="C16" s="4">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B17" s="1">
         <v>45689</v>
       </c>
       <c r="C17" s="4">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B18" s="1">
         <v>45717</v>
       </c>
       <c r="C18" s="4">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2">
         <f>SUM(C13:C16)</f>
-        <v>20800</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="E21" t="s">
-        <v>9</v>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="E21" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="2">
         <f>C9+C19</f>
-        <v>30238</v>
+        <v>25038</v>
       </c>
     </row>
   </sheetData>
@@ -883,67 +872,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2B3619-30F7-D144-93CF-68BFFE2DBF7D}">
-  <dimension ref="B1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68174086-6622-4780-866A-5E62986F1303}">
+  <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5">
-        <f>D3/12</f>
-        <v>1.25</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5">
-        <v>80</v>
-      </c>
-      <c r="E4" s="5">
-        <f>D4/12</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
